--- a/001_GPSCamera_Document/002＿GPSカメラアプリ＿要求.xlsx
+++ b/001_GPSCamera_Document/002＿GPSカメラアプリ＿要求.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>プロジェクト名：</t>
     <rPh sb="6" eb="7">
@@ -1277,12 +1277,16 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t xml:space="preserve">Salish Kootenai College (SKC) </t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,6 +1424,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1620,7 +1633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1685,6 +1698,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2036,7 +2050,7 @@
   <dimension ref="A2:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -2686,54 +2700,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="46"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="49">
         <v>42198</v>
       </c>
-      <c r="M4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2742,23 +2756,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="47"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -2820,17 +2834,17 @@
       <c r="F8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="54"/>
+      <c r="M8" s="55"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="7"/>
@@ -2849,15 +2863,15 @@
       <c r="F9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="7"/>
@@ -2870,13 +2884,13 @@
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="7"/>
@@ -2889,13 +2903,13 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="7"/>
@@ -2908,13 +2922,13 @@
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="7"/>
@@ -2927,13 +2941,13 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7"/>
@@ -2985,7 +2999,7 @@
   <dimension ref="B2:X41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4041,7 +4055,9 @@
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
       <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
+      <c r="U39" s="38" t="s">
+        <v>91</v>
+      </c>
       <c r="V39" s="27"/>
       <c r="W39" s="27"/>
       <c r="X39" s="28"/>

--- a/001_GPSCamera_Document/002＿GPSカメラアプリ＿要求.xlsx
+++ b/001_GPSCamera_Document/002＿GPSカメラアプリ＿要求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1439,7 +1439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1477,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1633,7 +1639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1699,13 +1705,12 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1740,6 +1745,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="どちらでもない" xfId="2" builtinId="28"/>
@@ -2049,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -2700,54 +2707,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="48">
         <v>42198</v>
       </c>
-      <c r="M4" s="47"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2756,23 +2763,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="47"/>
+      <c r="J5" s="46"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -2834,17 +2841,17 @@
       <c r="F8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="55"/>
+      <c r="M8" s="54"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="7"/>
@@ -2863,7 +2870,7 @@
       <c r="F9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="39" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="40"/>
@@ -2884,7 +2891,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="39"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
@@ -2903,7 +2910,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="39"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
@@ -2922,7 +2929,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="39"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -2941,7 +2948,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="39"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
@@ -2958,6 +2965,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -2971,14 +2986,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -2998,8 +3005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3202,17 +3209,17 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B9" s="29"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="28"/>
       <c r="N9" s="35"/>
       <c r="O9" s="36" t="s">
@@ -3482,17 +3489,17 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B19" s="29"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
       <c r="L19" s="28"/>
       <c r="N19" s="35"/>
       <c r="O19" s="36" t="s">
@@ -3510,17 +3517,17 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B20" s="29"/>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="28"/>
       <c r="N20" s="35"/>
       <c r="O20" s="36" t="s">

--- a/001_GPSCamera_Document/002＿GPSカメラアプリ＿要求.xlsx
+++ b/001_GPSCamera_Document/002＿GPSカメラアプリ＿要求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1439,7 +1439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,12 +1477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99FF99"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1639,7 +1633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1705,12 +1699,13 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1745,8 +1740,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="どちらでもない" xfId="2" builtinId="28"/>
@@ -2056,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -2707,54 +2700,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="46"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="49">
         <v>42198</v>
       </c>
-      <c r="M4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2763,23 +2756,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="47"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -2841,17 +2834,17 @@
       <c r="F8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="54"/>
+      <c r="M8" s="55"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="7"/>
@@ -2870,7 +2863,7 @@
       <c r="F9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="43" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="40"/>
@@ -2891,7 +2884,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="55"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
@@ -2910,7 +2903,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="55"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
@@ -2929,7 +2922,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="55"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -2948,7 +2941,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="55"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
@@ -2965,14 +2958,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -2986,6 +2971,14 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -3005,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3209,17 +3202,17 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B9" s="29"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="28"/>
       <c r="N9" s="35"/>
       <c r="O9" s="36" t="s">
@@ -3489,17 +3482,17 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B19" s="29"/>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
       <c r="L19" s="28"/>
       <c r="N19" s="35"/>
       <c r="O19" s="36" t="s">
@@ -3517,17 +3510,17 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B20" s="29"/>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="28"/>
       <c r="N20" s="35"/>
       <c r="O20" s="36" t="s">

--- a/001_GPSCamera_Document/002＿GPSカメラアプリ＿要求.xlsx
+++ b/001_GPSCamera_Document/002＿GPSカメラアプリ＿要求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1439,7 +1439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1477,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1633,7 +1639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1740,6 +1746,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="どちらでもない" xfId="2" builtinId="28"/>
@@ -2049,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -2998,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3551,17 +3559,17 @@
       <c r="K21" s="27"/>
       <c r="L21" s="28"/>
       <c r="N21" s="35"/>
-      <c r="O21" s="36" t="s">
+      <c r="O21" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
       <c r="X21" s="28"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.15">
@@ -3622,17 +3630,17 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B24" s="29"/>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="28"/>
       <c r="N24" s="37"/>
       <c r="O24" s="36" t="s">
@@ -3650,17 +3658,17 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B25" s="29"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="28"/>
       <c r="N25" s="35"/>
       <c r="O25" s="36" t="s">
